--- a/Stock/龙头.xlsx
+++ b/Stock/龙头.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luckyvon/Documents/Github/Economics/Stock/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6D9D292-C185-4442-99A1-82E1C9813A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAA0BFB-391D-F642-A96E-05CD36C44B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{CE3E81E4-8C9A-0947-BCBC-83A2D0E5E4EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="股票池" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -22,6 +22,794 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>目标价</t>
+  </si>
+  <si>
+    <t>上涨空间</t>
+  </si>
+  <si>
+    <t>估值分位</t>
+  </si>
+  <si>
+    <t>PE Band</t>
+  </si>
+  <si>
+    <t>预计2021年净利润增速</t>
+  </si>
+  <si>
+    <t>预计2021年净利润（亿）</t>
+  </si>
+  <si>
+    <t>预计2022年净利润（亿）</t>
+  </si>
+  <si>
+    <t>中国平安</t>
+  </si>
+  <si>
+    <t>000858</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>600900</t>
+  </si>
+  <si>
+    <t>长江电力</t>
+  </si>
+  <si>
+    <t>000333</t>
+  </si>
+  <si>
+    <t>美的集团</t>
+  </si>
+  <si>
+    <t>002415</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>601012</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>601633</t>
+  </si>
+  <si>
+    <t>长城汽车</t>
+  </si>
+  <si>
+    <t>601088</t>
+  </si>
+  <si>
+    <t>中国神华</t>
+  </si>
+  <si>
+    <t>603288</t>
+  </si>
+  <si>
+    <t>海天味业</t>
+  </si>
+  <si>
+    <t>601888</t>
+  </si>
+  <si>
+    <t>中国中免</t>
+  </si>
+  <si>
+    <t>688981</t>
+  </si>
+  <si>
+    <t>中芯国际</t>
+  </si>
+  <si>
+    <t>601728</t>
+  </si>
+  <si>
+    <t>中国电信</t>
+  </si>
+  <si>
+    <t>300059</t>
+  </si>
+  <si>
+    <t>东方财富</t>
+  </si>
+  <si>
+    <t>000568</t>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>603259</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>002475</t>
+  </si>
+  <si>
+    <t>立讯精密</t>
+  </si>
+  <si>
+    <t>600030</t>
+  </si>
+  <si>
+    <t>中信证券</t>
+  </si>
+  <si>
+    <t>300999</t>
+  </si>
+  <si>
+    <t>金龙鱼</t>
+  </si>
+  <si>
+    <t>002352</t>
+  </si>
+  <si>
+    <t>顺丰控股</t>
+  </si>
+  <si>
+    <t>600276</t>
+  </si>
+  <si>
+    <t>恒瑞药业</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>600309</t>
+  </si>
+  <si>
+    <t>万华化学</t>
+  </si>
+  <si>
+    <t>601919</t>
+  </si>
+  <si>
+    <t>中远海控</t>
+  </si>
+  <si>
+    <t>600690</t>
+  </si>
+  <si>
+    <t>海尔智家</t>
+  </si>
+  <si>
+    <t>002714</t>
+  </si>
+  <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
+    <t>600887</t>
+  </si>
+  <si>
+    <t>伊利股份</t>
+  </si>
+  <si>
+    <t>601899</t>
+  </si>
+  <si>
+    <t>紫金矿业</t>
+  </si>
+  <si>
+    <t>002142</t>
+  </si>
+  <si>
+    <t>宁波银行</t>
+  </si>
+  <si>
+    <t>002304</t>
+  </si>
+  <si>
+    <t>洋河股份</t>
+  </si>
+  <si>
+    <t>600104</t>
+  </si>
+  <si>
+    <t>上汽集团</t>
+  </si>
+  <si>
+    <t>601995</t>
+  </si>
+  <si>
+    <t>中金公司</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>万科A</t>
+  </si>
+  <si>
+    <t>300015</t>
+  </si>
+  <si>
+    <t>爱尔眼科</t>
+  </si>
+  <si>
+    <t>中信建投</t>
+  </si>
+  <si>
+    <t>601066</t>
+  </si>
+  <si>
+    <t>300014</t>
+  </si>
+  <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>002812</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>00651</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>300274</t>
+  </si>
+  <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>600585</t>
+  </si>
+  <si>
+    <t>海螺水泥</t>
+  </si>
+  <si>
+    <t>中国建筑</t>
+  </si>
+  <si>
+    <t>601668</t>
+  </si>
+  <si>
+    <t>002460</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>600438</t>
+  </si>
+  <si>
+    <t>通威股份</t>
+  </si>
+  <si>
+    <t>300122</t>
+  </si>
+  <si>
+    <t>智飞生物</t>
+  </si>
+  <si>
+    <t>000725</t>
+  </si>
+  <si>
+    <t>京东方A</t>
+  </si>
+  <si>
+    <t>600031</t>
+  </si>
+  <si>
+    <t>三一重工</t>
+  </si>
+  <si>
+    <t>000792</t>
+  </si>
+  <si>
+    <t>盐湖股份</t>
+  </si>
+  <si>
+    <t>002241</t>
+  </si>
+  <si>
+    <t>歌尔股份</t>
+  </si>
+  <si>
+    <t>荣盛石化</t>
+  </si>
+  <si>
+    <t>002493</t>
+  </si>
+  <si>
+    <t>002371</t>
+  </si>
+  <si>
+    <t>北方华创</t>
+  </si>
+  <si>
+    <t>300124</t>
+  </si>
+  <si>
+    <t>汇川技术</t>
+  </si>
+  <si>
+    <t>601766</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+  </si>
+  <si>
+    <t>600893</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>600111</t>
+  </si>
+  <si>
+    <t>北方稀土</t>
+  </si>
+  <si>
+    <t>688599</t>
+  </si>
+  <si>
+    <t>天合光能</t>
+  </si>
+  <si>
+    <t>恒力石化</t>
+  </si>
+  <si>
+    <t>600346</t>
+  </si>
+  <si>
+    <t>600745</t>
+  </si>
+  <si>
+    <t>闻泰科技</t>
+  </si>
+  <si>
+    <t>000063</t>
+  </si>
+  <si>
+    <t>中信通讯</t>
+  </si>
+  <si>
+    <t>003816</t>
+  </si>
+  <si>
+    <t>中国广核</t>
+  </si>
+  <si>
+    <t>广汽集团</t>
+  </si>
+  <si>
+    <t>601238</t>
+  </si>
+  <si>
+    <t>000338</t>
+  </si>
+  <si>
+    <t>潍柴动力</t>
+  </si>
+  <si>
+    <t>600999</t>
+  </si>
+  <si>
+    <t>招商证券</t>
+  </si>
+  <si>
+    <t>600011</t>
+  </si>
+  <si>
+    <t>华能国际</t>
+  </si>
+  <si>
+    <t>晶澳科技</t>
+  </si>
+  <si>
+    <t>002459</t>
+  </si>
+  <si>
+    <t>中国核电</t>
+  </si>
+  <si>
+    <t>601985</t>
+  </si>
+  <si>
+    <t>603260</t>
+  </si>
+  <si>
+    <t>合盛硅业</t>
+  </si>
+  <si>
+    <t>紫光国微</t>
+  </si>
+  <si>
+    <t>002049</t>
+  </si>
+  <si>
+    <t>600600</t>
+  </si>
+  <si>
+    <t>青岛啤酒</t>
+  </si>
+  <si>
+    <t>云南白药</t>
+  </si>
+  <si>
+    <t>000538</t>
+  </si>
+  <si>
+    <t>中航沈飞</t>
+  </si>
+  <si>
+    <t>600760</t>
+  </si>
+  <si>
+    <t>002271</t>
+  </si>
+  <si>
+    <t>东方雨虹</t>
+  </si>
+  <si>
+    <t>00596</t>
+  </si>
+  <si>
+    <t>古井贡酒</t>
+  </si>
+  <si>
+    <t>000877</t>
+  </si>
+  <si>
+    <t>天山股份</t>
+  </si>
+  <si>
+    <t>宝丰能源</t>
+  </si>
+  <si>
+    <t>600989</t>
+  </si>
+  <si>
+    <t>包钢股份</t>
+  </si>
+  <si>
+    <t>600010</t>
+  </si>
+  <si>
+    <t>600196</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>601865</t>
+  </si>
+  <si>
+    <t>福莱特</t>
+  </si>
+  <si>
+    <t>福斯特</t>
+  </si>
+  <si>
+    <t>603806</t>
+  </si>
+  <si>
+    <t>中国电建</t>
+  </si>
+  <si>
+    <t>601669</t>
+  </si>
+  <si>
+    <t>600660</t>
+  </si>
+  <si>
+    <t>福耀玻璃</t>
+  </si>
+  <si>
+    <t>温氏股份</t>
+  </si>
+  <si>
+    <t>300498</t>
+  </si>
+  <si>
+    <t>688111</t>
+  </si>
+  <si>
+    <t>金山办公</t>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+  </si>
+  <si>
+    <t>002230</t>
+  </si>
+  <si>
+    <t>600050</t>
+  </si>
+  <si>
+    <t>中国联通</t>
+  </si>
+  <si>
+    <t>分众传媒</t>
+  </si>
+  <si>
+    <t>002027</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>603986</t>
+  </si>
+  <si>
+    <t>先导智能</t>
+  </si>
+  <si>
+    <t>300450</t>
+  </si>
+  <si>
+    <t>爱美客</t>
+  </si>
+  <si>
+    <t>300896</t>
+  </si>
+  <si>
+    <t>000625</t>
+  </si>
+  <si>
+    <t>长安汽车</t>
+  </si>
+  <si>
+    <t>正泰电器</t>
+  </si>
+  <si>
+    <t>601877</t>
+  </si>
+  <si>
+    <t>蓝思科技</t>
+  </si>
+  <si>
+    <t>300433</t>
+  </si>
+  <si>
+    <t>中国能建</t>
+  </si>
+  <si>
+    <t>601868</t>
+  </si>
+  <si>
+    <t>康龙化成</t>
+  </si>
+  <si>
+    <t>300759</t>
+  </si>
+  <si>
+    <t>璞泰来</t>
+  </si>
+  <si>
+    <t>603659</t>
+  </si>
+  <si>
+    <t>泰格医药</t>
+  </si>
+  <si>
+    <t>300347</t>
+  </si>
+  <si>
+    <t>中国船舶</t>
+  </si>
+  <si>
+    <t>600150</t>
+  </si>
+  <si>
+    <t>中航光电</t>
+  </si>
+  <si>
+    <t>002179</t>
+  </si>
+  <si>
+    <t>天赐材料</t>
+  </si>
+  <si>
+    <t>002709</t>
+  </si>
+  <si>
+    <t>长春高新</t>
+  </si>
+  <si>
+    <t>000661</t>
+  </si>
+  <si>
+    <t>双汇发展</t>
+  </si>
+  <si>
+    <t>000895</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
+    <t>300782</t>
+  </si>
+  <si>
+    <t>芒果超媒</t>
+  </si>
+  <si>
+    <t>300413</t>
+  </si>
+  <si>
+    <t>恒立液压</t>
+  </si>
+  <si>
+    <t>601100</t>
+  </si>
+  <si>
+    <t>中国铝业</t>
+  </si>
+  <si>
+    <t>601600</t>
+  </si>
+  <si>
+    <t>中信特钢</t>
+  </si>
+  <si>
+    <t>00708</t>
+  </si>
+  <si>
+    <t>东方证券</t>
+  </si>
+  <si>
+    <t>600958</t>
+  </si>
+  <si>
+    <t>中航西飞</t>
+  </si>
+  <si>
+    <t>000768</t>
+  </si>
+  <si>
+    <t>公牛集团</t>
+  </si>
+  <si>
+    <t>603195</t>
+  </si>
+  <si>
+    <t>鹏鼎控股</t>
+  </si>
+  <si>
+    <t>002938</t>
+  </si>
+  <si>
+    <t>中国东航</t>
+  </si>
+  <si>
+    <t>600115</t>
+  </si>
+  <si>
+    <t>中国重工</t>
+  </si>
+  <si>
+    <t>601989</t>
+  </si>
+  <si>
+    <t>澜起科技</t>
+  </si>
+  <si>
+    <t>688008</t>
+  </si>
+  <si>
+    <t>东方盛红</t>
+  </si>
+  <si>
+    <t>000301</t>
+  </si>
+  <si>
+    <t>中伟股份</t>
+  </si>
+  <si>
+    <t>300919</t>
+  </si>
+  <si>
+    <t>三花智控</t>
+  </si>
+  <si>
+    <t>002050</t>
+  </si>
+  <si>
+    <t>恒生电子</t>
+  </si>
+  <si>
+    <t>600570</t>
+  </si>
+  <si>
+    <t>上海机场</t>
+  </si>
+  <si>
+    <t>600009</t>
+  </si>
+  <si>
+    <t>欧派家居</t>
+  </si>
+  <si>
+    <t>603833</t>
+  </si>
+  <si>
+    <t>晶盛机电</t>
+  </si>
+  <si>
+    <t>300316</t>
+  </si>
+  <si>
+    <t>华域汽车</t>
+  </si>
+  <si>
+    <t>600741</t>
+  </si>
+  <si>
+    <t>TCL科技</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>科沃斯</t>
+  </si>
+  <si>
+    <t>603486</t>
+  </si>
+  <si>
+    <t>三环集团</t>
+  </si>
+  <si>
+    <t>300408</t>
+  </si>
+  <si>
+    <t>国轩高科</t>
+  </si>
+  <si>
+    <t>002074</t>
+  </si>
+  <si>
+    <t>广和通</t>
+  </si>
+  <si>
+    <t>300638</t>
+  </si>
+  <si>
+    <t>圣邦股份</t>
+  </si>
+  <si>
+    <t>300661</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,8 +843,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +1163,3723 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB9BD8B-3A55-824F-BAA5-5E7BD2ED8FEE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I130" sqref="I130"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>600036</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>67.55</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1181</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1378</v>
+      </c>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>601318</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="3">
+        <v>77.739999999999995</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1272</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-0.11</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>279.83</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G4" s="3">
+        <v>239</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>25.63</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G5" s="3">
+        <v>260</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="I5" s="3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="E6" s="3">
+        <v>95</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G6" s="3">
+        <v>292</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G7" s="3">
+        <v>169</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="I7" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="3">
+        <v>118</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="G8" s="3">
+        <v>112</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="I8" s="3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>77</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G9" s="3">
+        <v>82</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="I9" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G10" s="3">
+        <v>533</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="I10" s="3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="3">
+        <v>129</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="G11" s="3">
+        <v>68</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I11" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>330</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>110</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="I12" s="3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E13" s="3">
+        <v>77</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="G13" s="3">
+        <v>90</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="I13" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G14" s="3">
+        <v>259</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="I14" s="3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="G15" s="3">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I15" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>274</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G16" s="3">
+        <v>76</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="I16" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="E17" s="3">
+        <v>192</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G17" s="3">
+        <v>44</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E18" s="3">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G18" s="3">
+        <v>81</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="I18" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="3">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G19" s="3">
+        <v>212</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="I19" s="3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>71</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G20" s="3">
+        <v>58</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="I20" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>81</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G21" s="3">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-0.45</v>
+      </c>
+      <c r="I21" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="3">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G22" s="3">
+        <v>65</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I22" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E23" s="3">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="G23" s="3">
+        <v>365</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="I23" s="3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>148</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="G24" s="3">
+        <v>244</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="I24" s="3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="1">
+        <v>10</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="3">
+        <v>36</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>129</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="I26" s="3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="3">
+        <v>69</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="3">
+        <v>133</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-0.52</v>
+      </c>
+      <c r="I27" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>52</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G28" s="3">
+        <v>90</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I28" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="3">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="G29" s="3">
+        <v>152</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="I29" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E30" s="3">
+        <v>46</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G30" s="3">
+        <v>188</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I30" s="3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E31" s="3">
+        <v>226</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="G31" s="3">
+        <v>79</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I31" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>29</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="G32" s="3">
+        <v>267</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="I32" s="3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E33" s="3">
+        <v>56</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="I33" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E34" s="3">
+        <v>27</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G34" s="3">
+        <v>404</v>
+      </c>
+      <c r="H34" s="1">
+        <v>-0.03</v>
+      </c>
+      <c r="I34" s="3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E35" s="3">
+        <v>61</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="G35" s="3">
+        <v>23</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="I35" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E36" s="3">
+        <v>26</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-0.12</v>
+      </c>
+      <c r="G36" s="3">
+        <v>100</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I36" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E37" s="3">
+        <v>153</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G37" s="3">
+        <v>33</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I37" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="3">
+        <v>343</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="G38" s="3">
+        <v>25</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="I38" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>54</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G39" s="3">
+        <v>240</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="I39" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>190</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G40" s="3">
+        <v>29</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="I40" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E41" s="3">
+        <v>55</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G41" s="3">
+        <v>348</v>
+      </c>
+      <c r="H41" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="I41" s="3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E42" s="3">
+        <v>7</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="G42" s="3">
+        <v>507</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="I42" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E43" s="3">
+        <v>247</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="G43" s="3">
+        <v>31</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="I43" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>68</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>82</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="I44" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E45" s="3">
+        <v>199</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G45" s="3">
+        <v>69</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I45" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="G46" s="3">
+        <v>236</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="I46" s="3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>36</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G47" s="3">
+        <v>170</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I47" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E48" s="3">
+        <v>45</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G48" s="3">
+        <v>55</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="I48" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E49" s="3">
+        <v>58</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G49" s="3">
+        <v>44</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="I49" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>26</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G50" s="3">
+        <v>143</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="I50" s="3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E51" s="3">
+        <v>440</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G51" s="3">
+        <v>9</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="I51" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E52" s="3">
+        <v>84</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="G52" s="3">
+        <v>33</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I52" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G53" s="3">
+        <v>120</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I53" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E54" s="3">
+        <v>74</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G54" s="3">
+        <v>15</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="I54" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>40</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G55" s="3">
+        <v>23</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="I55" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E56" s="3">
+        <v>67</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="G56" s="3">
+        <v>46</v>
+      </c>
+      <c r="H56" s="1">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="I56" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>76</v>
+      </c>
+      <c r="F57" s="1">
+        <v>-0.03</v>
+      </c>
+      <c r="G57" s="3">
+        <v>20</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="I57" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E58" s="3">
+        <v>39</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="G58" s="3">
+        <v>169</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="I58" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>140</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G59" s="3">
+        <v>34</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="I59" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E60" s="3">
+        <v>50</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>73</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="I60" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G61" s="3">
+        <v>107</v>
+      </c>
+      <c r="H61" s="1">
+        <v>11</v>
+      </c>
+      <c r="I61" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>23</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="G62" s="3">
+        <v>76</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I62" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="3">
+        <v>23</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G63" s="3">
+        <v>107</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="I63" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>24</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G64" s="3">
+        <v>116</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="I64" s="3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3">
+        <v>8</v>
+      </c>
+      <c r="F65" s="1">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="G65" s="3">
+        <v>-22</v>
+      </c>
+      <c r="H65" s="1">
+        <v>-1.48</v>
+      </c>
+      <c r="I65" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3">
+        <v>112</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G66" s="3">
+        <v>20</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I66" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E67" s="3">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G67" s="3">
+        <v>79</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="I67" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E68" s="3">
+        <v>220</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="G68" s="3">
+        <v>76</v>
+      </c>
+      <c r="H68" s="1">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I68" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E69" s="3">
+        <v>260</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G69" s="3">
+        <v>18</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="I69" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E70" s="3">
+        <v>111</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G70" s="3">
+        <v>28</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I70" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E71" s="3">
+        <v>107</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G71" s="3">
+        <v>42</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I71" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E72" s="3">
+        <v>91</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G72" s="3">
+        <v>20</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="I72" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E73" s="3">
+        <v>66</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G73" s="3">
+        <v>43</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="I73" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3">
+        <v>284</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G74" s="3">
+        <v>24</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I74" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E75" s="3">
+        <v>21</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="G75" s="3">
+        <v>56</v>
+      </c>
+      <c r="H75" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="I75" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E76" s="3">
+        <v>23</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G76" s="3">
+        <v>71</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="I76" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>4</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="G77" s="3">
+        <v>50</v>
+      </c>
+      <c r="H77" s="1">
+        <v>11.37</v>
+      </c>
+      <c r="I77" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E78" s="3">
+        <v>71</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G78" s="3">
+        <v>45</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="I78" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E79" s="3">
+        <v>58</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G79" s="3">
+        <v>24</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="I79" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3">
+        <v>156</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G80" s="3">
+        <v>20</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="I80" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E81" s="3">
+        <v>11</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G81" s="3">
+        <v>89</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="I81" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="3">
+        <v>67</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="G82" s="3">
+        <v>39</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="I82" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3">
+        <v>21</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G83" s="3">
+        <v>-74</v>
+      </c>
+      <c r="H83" s="1">
+        <v>-1.99</v>
+      </c>
+      <c r="I83" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E84" s="3">
+        <v>376</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="G84" s="3">
+        <v>12</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="I84" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E85" s="3">
+        <v>76</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G85" s="3">
+        <v>18</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="I85" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E86" s="3">
+        <v>6</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="G86" s="3">
+        <v>66</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I86" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E87" s="3">
+        <v>11</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G87" s="3">
+        <v>60</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I87" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E88" s="3">
+        <v>206</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G88" s="3">
+        <v>21</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="I88" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E89" s="3">
+        <v>99</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G89" s="3">
+        <v>16</v>
+      </c>
+      <c r="H89" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="I89" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E90" s="3">
+        <v>737</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="G90" s="3">
+        <v>9</v>
+      </c>
+      <c r="H90" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I90" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="3">
+        <v>24</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G91" s="3">
+        <v>47</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="I91" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E92" s="3">
+        <v>73</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G92" s="3">
+        <v>45</v>
+      </c>
+      <c r="H92" s="1">
+        <v>-0.31</v>
+      </c>
+      <c r="I92" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E93" s="3">
+        <v>29</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G93" s="3">
+        <v>58</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I93" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="3">
+        <v>3</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G94" s="3">
+        <v>73</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I94" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E95" s="3">
+        <v>223</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G95" s="3">
+        <v>15</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I95" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E96" s="3">
+        <v>210</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G96" s="3">
+        <v>17</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="I96" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E97" s="3">
+        <v>194</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="G97" s="3">
+        <v>22</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="I97" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G98" s="3">
+        <v>6</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="I98" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E99" s="3">
+        <v>115</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G99" s="3">
+        <v>22</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I99" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E100" s="3">
+        <v>181</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G100" s="3">
+        <v>24</v>
+      </c>
+      <c r="H100" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E101" s="3">
+        <v>382</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="G101" s="3">
+        <v>41</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="I101" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="E102" s="3">
+        <v>33</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G102" s="3">
+        <v>51</v>
+      </c>
+      <c r="H102" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="I102" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E103" s="3">
+        <v>426</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G103" s="3">
+        <v>21</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
+      <c r="I103" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E104" s="3">
+        <v>62</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G104" s="3">
+        <v>25</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="I104" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E105" s="3">
+        <v>109</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G105" s="3">
+        <v>28</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I105" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B106" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E106" s="3">
+        <v>8</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G106" s="3">
+        <v>66</v>
+      </c>
+      <c r="H106" s="1">
+        <v>7.91</v>
+      </c>
+      <c r="I106" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B107" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E107" s="3">
+        <v>41</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G107" s="3">
+        <v>83</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="I107" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B108" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E108" s="3">
+        <v>19</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G108" s="3">
+        <v>53</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="I108" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B109" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E109" s="3">
+        <v>41</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G109" s="3">
+        <v>10</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="I109" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B110" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E110" s="3">
+        <v>217</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G110" s="3">
+        <v>29</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="I110" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B111" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E111" s="3">
+        <v>45</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G111" s="3">
+        <v>35</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="I111" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B112" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>7</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G112" s="3">
+        <v>-62</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="I112" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B113" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3">
+        <v>5</v>
+      </c>
+      <c r="H113" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="I113" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B114" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E114" s="3">
+        <v>85</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G114" s="3">
+        <v>9</v>
+      </c>
+      <c r="H114" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="I114" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B115" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1</v>
+      </c>
+      <c r="E115" s="3">
+        <v>35</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G115" s="3">
+        <v>27</v>
+      </c>
+      <c r="H115" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="I115" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E116" s="3">
+        <v>192</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G116" s="3">
+        <v>11</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="I116" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117" t="s">
+        <v>237</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1</v>
+      </c>
+      <c r="E117" s="3">
+        <v>27</v>
+      </c>
+      <c r="F117" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G117" s="3">
+        <v>19</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I117" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118" t="s">
+        <v>239</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E118" s="3">
+        <v>86</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="G118" s="3">
+        <v>16</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I118" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119" t="s">
+        <v>241</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1</v>
+      </c>
+      <c r="E119" s="3">
+        <v>59</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G119" s="3">
+        <v>-15</v>
+      </c>
+      <c r="H119" s="1">
+        <v>-0.18</v>
+      </c>
+      <c r="I119" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B120" t="s">
+        <v>243</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="E120" s="3">
+        <v>180</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="G120" s="3">
+        <v>28</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="I120" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B121" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E121" s="3">
+        <v>92</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G121" s="3">
+        <v>16</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="I121" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B122" t="s">
+        <v>247</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E122" s="3">
+        <v>35</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G122" s="3">
+        <v>66</v>
+      </c>
+      <c r="H122" s="1">
+        <v>21</v>
+      </c>
+      <c r="I122" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B123" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E123" s="3">
+        <v>9</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="G123" s="3">
+        <v>122</v>
+      </c>
+      <c r="H123" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="I123" s="3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B124" t="s">
+        <v>251</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E124" s="3">
+        <v>218</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="G124" s="3">
+        <v>20</v>
+      </c>
+      <c r="H124" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I124" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B125" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E125" s="3">
+        <v>54</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="G125" s="3">
+        <v>22</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="I125" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B126" t="s">
+        <v>255</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1</v>
+      </c>
+      <c r="E126" s="3">
+        <v>69</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="G126" s="3">
+        <v>4</v>
+      </c>
+      <c r="H126" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="I126" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B127" t="s">
+        <v>257</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E127" s="3">
+        <v>64</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G127" s="3">
+        <v>4</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I127" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B128" t="s">
+        <v>259</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E128" s="3">
+        <v>400</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G128" s="3">
+        <v>6</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I128" s="3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>